--- a/TextRevamp.xlsx
+++ b/TextRevamp.xlsx
@@ -24,10 +24,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1707223839" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1707223839" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1707223839" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1707223839"/>
+      <pm:revision xmlns:pm="smNativeData" day="1707224400" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1707224400" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1707224400" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1707224400"/>
     </ext>
   </extLst>
 </workbook>
@@ -178,7 +178,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -198,7 +198,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -218,7 +218,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -238,7 +238,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1244,7 +1244,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1264,7 +1264,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2385,7 +2385,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2405,7 +2405,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2439,7 +2439,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2629,7 +2629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2649,7 +2649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2669,7 +2669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2689,7 +2689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2709,7 +2709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2729,7 +2729,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2787,7 +2787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2807,7 +2807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2827,7 +2827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2847,7 +2847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2867,7 +2867,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2887,7 +2887,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2907,7 +2907,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2927,7 +2927,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2947,7 +2947,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3017,7 +3017,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3037,7 +3037,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3057,7 +3057,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3077,7 +3077,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3097,7 +3097,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3117,7 +3117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3163,7 +3163,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3183,7 +3183,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3203,7 +3203,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3223,7 +3223,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3243,7 +3243,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3263,7 +3263,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3283,7 +3283,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3303,7 +3303,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3323,7 +3323,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3393,7 +3393,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3413,7 +3413,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3433,7 +3433,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3453,7 +3453,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3473,7 +3473,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3493,7 +3493,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3513,7 +3513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3533,7 +3533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3553,7 +3553,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3587,7 +3587,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3607,7 +3607,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3627,7 +3627,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3647,7 +3647,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3667,7 +3667,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3687,7 +3687,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3707,7 +3707,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3741,7 +3741,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3761,7 +3761,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3781,7 +3781,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3801,7 +3801,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3821,7 +3821,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3841,7 +3841,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3861,7 +3861,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3881,7 +3881,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3901,7 +3901,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3921,7 +3921,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3961,7 +3961,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3981,7 +3981,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4002,7 +4002,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4022,7 +4022,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4042,7 +4042,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4062,7 +4062,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4082,7 +4082,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4102,7 +4102,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4122,7 +4122,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4142,7 +4142,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4163,7 +4163,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4183,7 +4183,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4203,7 +4203,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4639,7 +4639,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -4670,7 +4670,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -4989,7 +4989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5009,7 +5009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5034,7 +5034,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5054,7 +5054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5079,7 +5079,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5099,7 +5099,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5136,7 +5136,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -5157,7 +5157,7 @@
         <color rgb="FF800080"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="800080">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="800080">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -5254,7 +5254,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5274,7 +5274,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5299,7 +5299,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5319,7 +5319,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5344,7 +5344,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5364,7 +5364,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5427,7 +5427,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5447,7 +5447,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5529,7 +5529,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5563,7 +5563,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5583,7 +5583,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5617,7 +5617,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5637,7 +5637,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5657,7 +5657,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5677,7 +5677,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5802,7 +5802,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5822,7 +5822,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5842,7 +5842,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5862,7 +5862,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5882,7 +5882,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5902,7 +5902,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5923,7 +5923,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5943,7 +5943,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5963,7 +5963,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5983,7 +5983,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -6003,7 +6003,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -6023,7 +6023,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7245,7 +7245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7276,7 +7276,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7296,7 +7296,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7374,7 +7374,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7394,7 +7394,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7433,7 +7433,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7453,7 +7453,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8654,7 +8654,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8674,7 +8674,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8756,7 +8756,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft YaHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8776,7 +8776,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8796,7 +8796,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9922,7 +9922,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9942,7 +9942,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9970,7 +9970,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9990,7 +9990,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10018,7 +10018,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10038,7 +10038,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10844,7 +10844,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10864,7 +10864,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10884,7 +10884,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10904,7 +10904,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10938,7 +10938,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10958,7 +10958,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10978,7 +10978,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11012,7 +11012,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11032,7 +11032,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11054,7 +11054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -11074,7 +11074,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -11185,7 +11185,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11205,7 +11205,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11225,7 +11225,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11245,7 +11245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11266,7 +11266,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11286,7 +11286,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11306,7 +11306,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11326,7 +11326,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11347,7 +11347,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11367,7 +11367,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11388,7 +11388,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11408,7 +11408,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11428,7 +11428,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11448,7 +11448,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11468,7 +11468,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11488,7 +11488,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11508,7 +11508,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11528,7 +11528,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11549,7 +11549,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11569,7 +11569,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11589,7 +11589,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11609,7 +11609,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11629,7 +11629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11649,7 +11649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11669,7 +11669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11689,7 +11689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11709,7 +11709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11729,7 +11729,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11749,7 +11749,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11769,7 +11769,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11789,7 +11789,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11809,7 +11809,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11829,7 +11829,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11849,7 +11849,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11869,7 +11869,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11889,7 +11889,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11910,7 +11910,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11930,7 +11930,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11950,7 +11950,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11970,7 +11970,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11990,7 +11990,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12010,7 +12010,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12030,7 +12030,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12064,7 +12064,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12084,7 +12084,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12118,7 +12118,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12138,7 +12138,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12158,7 +12158,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13492,7 +13492,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13512,7 +13512,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13532,7 +13532,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14357,7 +14357,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14377,7 +14377,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14397,7 +14397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14418,7 +14418,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14438,7 +14438,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14458,7 +14458,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14478,7 +14478,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14498,7 +14498,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14518,7 +14518,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14552,7 +14552,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14572,7 +14572,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14997,7 +14997,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15017,7 +15017,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15037,7 +15037,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15057,7 +15057,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15088,7 +15088,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15108,7 +15108,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15128,7 +15128,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15148,7 +15148,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15168,7 +15168,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15188,7 +15188,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15219,7 +15219,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15239,7 +15239,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15259,7 +15259,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15279,7 +15279,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15495,7 +15495,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15515,7 +15515,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15535,7 +15535,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15555,7 +15555,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15575,7 +15575,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15595,7 +15595,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15616,7 +15616,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15636,7 +15636,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15657,7 +15657,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15677,7 +15677,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15697,7 +15697,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15717,7 +15717,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15737,7 +15737,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15758,7 +15758,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15778,7 +15778,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15798,7 +15798,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15818,7 +15818,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15838,7 +15838,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15859,7 +15859,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15879,7 +15879,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15899,7 +15899,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15919,7 +15919,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15940,7 +15940,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15960,7 +15960,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15980,7 +15980,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16000,7 +16000,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16020,7 +16020,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16040,7 +16040,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16060,7 +16060,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16080,7 +16080,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16100,7 +16100,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16120,7 +16120,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16140,7 +16140,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16160,7 +16160,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16181,7 +16181,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16201,7 +16201,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16221,7 +16221,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16241,7 +16241,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16261,7 +16261,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16281,7 +16281,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16301,7 +16301,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16321,7 +16321,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16342,7 +16342,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16362,7 +16362,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16383,7 +16383,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16403,7 +16403,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16423,7 +16423,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16443,7 +16443,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16463,7 +16463,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16483,7 +16483,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16504,7 +16504,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16524,7 +16524,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16544,7 +16544,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16564,7 +16564,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16584,7 +16584,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16604,7 +16604,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16624,7 +16624,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16644,7 +16644,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16726,7 +16726,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16746,7 +16746,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16766,7 +16766,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16786,7 +16786,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16807,7 +16807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16827,7 +16827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16847,7 +16847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16868,7 +16868,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16888,7 +16888,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16908,7 +16908,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16929,7 +16929,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16949,7 +16949,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16969,7 +16969,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16989,7 +16989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17010,7 +17010,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17030,7 +17030,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17051,7 +17051,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17071,7 +17071,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17091,7 +17091,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17111,7 +17111,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17943,7 +17943,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17963,7 +17963,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17991,7 +17991,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18011,7 +18011,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18039,7 +18039,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18059,7 +18059,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18177,7 +18177,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18197,7 +18197,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18225,7 +18225,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18245,7 +18245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18273,7 +18273,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18293,7 +18293,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18321,7 +18321,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18341,7 +18341,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18383,7 +18383,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18519,7 +18519,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18539,7 +18539,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18567,7 +18567,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18587,7 +18587,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18615,7 +18615,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18635,7 +18635,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18877,7 +18877,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18898,7 +18898,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18919,7 +18919,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18939,7 +18939,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19322,7 +19322,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19343,7 +19343,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19416,7 +19416,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19437,7 +19437,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19457,7 +19457,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19478,7 +19478,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19621,7 +19621,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19642,7 +19642,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19662,7 +19662,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20259,7 +20259,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20280,7 +20280,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20301,7 +20301,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20322,7 +20322,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20342,7 +20342,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20362,7 +20362,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20388,7 +20388,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20408,7 +20408,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20430,7 +20430,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20450,7 +20450,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20470,7 +20470,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20490,7 +20490,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20516,7 +20516,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20536,7 +20536,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22461,7 +22461,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22482,7 +22482,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22569,7 +22569,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22589,7 +22589,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22609,7 +22609,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22629,7 +22629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22649,7 +22649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22669,7 +22669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22689,7 +22689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22709,7 +22709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22732,7 +22732,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22752,7 +22752,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22772,7 +22772,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22792,7 +22792,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22813,7 +22813,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22833,7 +22833,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22853,7 +22853,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22873,7 +22873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22895,7 +22895,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22915,7 +22915,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22935,7 +22935,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22955,7 +22955,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22975,7 +22975,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22995,7 +22995,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23015,7 +23015,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23035,7 +23035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23055,7 +23055,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23075,7 +23075,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23095,7 +23095,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23116,7 +23116,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24683,7 +24683,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24703,7 +24703,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24771,7 +24771,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24791,7 +24791,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26417,7 +26417,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26437,7 +26437,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26465,7 +26465,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26485,7 +26485,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26513,7 +26513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26533,7 +26533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26606,7 +26606,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26626,7 +26626,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26646,7 +26646,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26666,7 +26666,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26686,7 +26686,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26706,7 +26706,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26727,7 +26727,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26747,7 +26747,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26768,7 +26768,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26788,7 +26788,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26808,7 +26808,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26828,7 +26828,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26848,7 +26848,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26868,7 +26868,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26888,7 +26888,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26908,7 +26908,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26928,7 +26928,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26948,7 +26948,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26968,7 +26968,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26988,7 +26988,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27009,7 +27009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27029,7 +27029,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27049,7 +27049,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27069,7 +27069,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27089,7 +27089,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27109,7 +27109,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27129,7 +27129,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27149,7 +27149,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27169,7 +27169,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27189,7 +27189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27210,7 +27210,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27230,7 +27230,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27250,7 +27250,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27270,7 +27270,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27290,7 +27290,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27310,7 +27310,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707223839">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -28315,7 +28315,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28330,7 +28330,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28344,7 +28344,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28358,7 +28358,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28372,7 +28372,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28387,7 +28387,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28402,7 +28402,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28416,7 +28416,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28431,7 +28431,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -28446,7 +28446,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -28461,7 +28461,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -28476,7 +28476,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -28491,7 +28491,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28505,7 +28505,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28520,7 +28520,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28535,7 +28535,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28550,7 +28550,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28564,7 +28564,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28579,7 +28579,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28593,7 +28593,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28607,7 +28607,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28621,7 +28621,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28635,7 +28635,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28651,7 +28651,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="800080" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="800080" ulstyle="none" kern="1">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28667,7 +28667,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28682,7 +28682,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="Microsoft JhengHei" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28697,7 +28697,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="Microsoft YaHei" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28713,7 +28713,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28728,7 +28728,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28744,7 +28744,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28760,7 +28760,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707223839" fgClr="800080" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="800080" ulstyle="none">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28782,7 +28782,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28799,7 +28799,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28810,7 +28810,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28821,7 +28821,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28832,7 +28832,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28849,7 +28849,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28860,7 +28860,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28871,7 +28871,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28882,7 +28882,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28893,7 +28893,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28904,7 +28904,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28915,7 +28915,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="0095B3D7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="0095B3D7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28926,7 +28926,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28937,7 +28937,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00F2DCDB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00F2DCDB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28948,7 +28948,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00E6B8B7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00E6B8B7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28959,7 +28959,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00DA9694" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00DA9694" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28970,7 +28970,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="009BBB59" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="009BBB59" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28981,7 +28981,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28992,7 +28992,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29003,7 +29003,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29014,7 +29014,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="008064A2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="008064A2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29025,7 +29025,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00E4DFEC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00E4DFEC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29036,7 +29036,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00CCC0DA" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00CCC0DA" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29047,7 +29047,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00B1A0C7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00B1A0C7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29058,7 +29058,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29069,7 +29069,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29080,7 +29080,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00B7DEE8" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00B7DEE8" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29091,7 +29091,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="0092CDDC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="0092CDDC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29102,7 +29102,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29113,7 +29113,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29124,7 +29124,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00FCD5B4" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FCD5B4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29135,7 +29135,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00FABF8F" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FABF8F" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29146,7 +29146,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707223839" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29168,7 +29168,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29187,7 +29187,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -29211,7 +29211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="4F81BD"/>
           </pm:border>
         </ext>
@@ -29232,7 +29232,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="A6BEDD"/>
           </pm:border>
         </ext>
@@ -29253,7 +29253,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -29277,7 +29277,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -29301,7 +29301,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -29325,7 +29325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -29349,7 +29349,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -29370,7 +29370,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839">
+          <pm:border xmlns:pm="smNativeData" id="1707224400">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="4F81BD"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="4F81BD"/>
           </pm:border>
@@ -29392,7 +29392,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29411,7 +29411,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29430,7 +29430,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29449,7 +29449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29468,7 +29468,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29487,7 +29487,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29506,7 +29506,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29525,7 +29525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29544,7 +29544,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29563,7 +29563,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29582,7 +29582,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29601,7 +29601,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29620,7 +29620,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29639,7 +29639,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29658,7 +29658,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29677,7 +29677,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29696,7 +29696,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29715,7 +29715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29734,7 +29734,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29753,7 +29753,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29772,7 +29772,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29791,7 +29791,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29810,7 +29810,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29829,7 +29829,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29848,7 +29848,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29867,7 +29867,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29886,7 +29886,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -29905,7 +29905,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707223839"/>
+          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
         </ext>
       </extLst>
     </border>
@@ -30063,7 +30063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -30256,9 +30256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -30326,10 +30323,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1707223839" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1707224400" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1707223839" count="42">
+      <pm:colors xmlns:pm="smNativeData" id="1707224400" count="42">
         <pm:color name="色 24" rgb="800080"/>
         <pm:color name="色 25" rgb="EEECE1"/>
         <pm:color name="色 26" rgb="3F3F76"/>
@@ -30636,8 +30633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q402"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A385" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:M402"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A343" zoomScale="90" workbookViewId="0">
+      <selection activeCell="M360" sqref="M360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.65"/>
@@ -35131,7 +35128,7 @@
       </c>
     </row>
     <row r="357" spans="1:13">
-      <c r="A357" s="72" t="s">
+      <c r="A357" s="69" t="s">
         <v>1049</v>
       </c>
       <c r="M357" t="s">
@@ -35166,7 +35163,7 @@
       <c r="A361" t="s">
         <v>1057</v>
       </c>
-      <c r="M361" s="73" t="s">
+      <c r="M361" s="72" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -35470,7 +35467,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -35479,16 +35476,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -35726,7 +35723,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -35735,16 +35732,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -41201,7 +41198,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -41210,16 +41207,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -48536,7 +48533,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -48545,16 +48542,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -48859,7 +48856,7 @@
       <c r="A18" t="s">
         <v>3680</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>3681</v>
       </c>
       <c r="M18" t="s">
@@ -52281,7 +52278,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -52290,16 +52287,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -56766,7 +56763,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -56775,16 +56772,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -57396,7 +57393,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -57405,16 +57402,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -57967,7 +57964,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -57976,16 +57973,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -58260,7 +58257,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707223839" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -58269,16 +58266,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707223839" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707223839" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707223839" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/TextRevamp.xlsx
+++ b/TextRevamp.xlsx
@@ -24,10 +24,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1707224400" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1707224400" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1707224400" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1707224400"/>
+      <pm:revision xmlns:pm="smNativeData" day="1707225669" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1707225669" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1707225669" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1707225669"/>
     </ext>
   </extLst>
 </workbook>
@@ -178,7 +178,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -198,7 +198,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -218,7 +218,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -238,7 +238,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1093,7 +1093,7 @@
     <t>模组专用（东京）</t>
   </si>
   <si>
-    <t>csvImport</t>
+    <t>importCsv</t>
   </si>
   <si>
     <t>Import settings</t>
@@ -1141,7 +1141,7 @@
     <t>导入失败，请稍后重试..</t>
   </si>
   <si>
-    <t>csvExport</t>
+    <t>exportCsv</t>
   </si>
   <si>
     <t>Export settings</t>
@@ -1244,7 +1244,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1264,7 +1264,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2385,7 +2385,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2405,7 +2405,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2439,7 +2439,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2629,7 +2629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2649,7 +2649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2669,7 +2669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2689,7 +2689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2709,7 +2709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2729,7 +2729,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2787,7 +2787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2807,7 +2807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2827,7 +2827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2847,7 +2847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2867,7 +2867,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2887,7 +2887,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2907,7 +2907,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2927,7 +2927,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2947,7 +2947,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3017,7 +3017,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3037,7 +3037,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3057,7 +3057,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3077,7 +3077,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3097,7 +3097,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3117,7 +3117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3163,7 +3163,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3183,7 +3183,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3203,7 +3203,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3223,7 +3223,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3243,7 +3243,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3263,7 +3263,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3283,7 +3283,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3303,7 +3303,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3323,7 +3323,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3393,7 +3393,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3413,7 +3413,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3433,7 +3433,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3453,7 +3453,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3473,7 +3473,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3493,7 +3493,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3513,7 +3513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3533,7 +3533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3553,7 +3553,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3587,7 +3587,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3607,7 +3607,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3627,7 +3627,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3647,7 +3647,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3667,7 +3667,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3687,7 +3687,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3707,7 +3707,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3741,7 +3741,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3761,7 +3761,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3781,7 +3781,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3801,7 +3801,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3821,7 +3821,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3841,7 +3841,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3861,7 +3861,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3881,7 +3881,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3901,7 +3901,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3921,7 +3921,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3961,7 +3961,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3981,7 +3981,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4002,7 +4002,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4022,7 +4022,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4042,7 +4042,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4062,7 +4062,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4082,7 +4082,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4102,7 +4102,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4122,7 +4122,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4142,7 +4142,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4163,7 +4163,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4183,7 +4183,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4203,7 +4203,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4639,7 +4639,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -4670,7 +4670,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -4883,7 +4883,7 @@
     <t>PublicBetaStr</t>
   </si>
   <si>
-    <t>パブリックベータ - v</t>
+    <t>パブリックベータ - v{0}</t>
   </si>
   <si>
     <t>PublicBetaEnableDisableStr</t>
@@ -4989,7 +4989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5009,7 +5009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5034,7 +5034,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5054,7 +5054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5079,7 +5079,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5099,7 +5099,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5136,7 +5136,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -5157,7 +5157,7 @@
         <color rgb="FF800080"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="800080">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="800080">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -5254,7 +5254,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5274,7 +5274,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5299,7 +5299,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5319,7 +5319,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5344,7 +5344,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5364,7 +5364,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5427,7 +5427,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5447,7 +5447,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5529,7 +5529,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5563,7 +5563,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5583,7 +5583,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5617,7 +5617,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5637,7 +5637,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5657,7 +5657,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5677,7 +5677,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5802,7 +5802,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5822,7 +5822,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5842,7 +5842,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5862,7 +5862,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5882,7 +5882,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5902,7 +5902,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5923,7 +5923,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5943,7 +5943,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5963,7 +5963,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5983,7 +5983,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -6003,7 +6003,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -6023,7 +6023,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7245,7 +7245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7276,7 +7276,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7296,7 +7296,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7374,7 +7374,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7394,7 +7394,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7433,7 +7433,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7453,7 +7453,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8654,7 +8654,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8674,7 +8674,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8756,7 +8756,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft YaHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8776,7 +8776,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8796,7 +8796,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9922,7 +9922,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9942,7 +9942,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9970,7 +9970,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9990,7 +9990,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10018,7 +10018,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10038,7 +10038,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10844,7 +10844,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10864,7 +10864,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10884,7 +10884,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10904,7 +10904,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10938,7 +10938,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10958,7 +10958,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10978,7 +10978,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11012,7 +11012,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11032,7 +11032,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11054,7 +11054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -11074,7 +11074,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -11185,7 +11185,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11205,7 +11205,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11225,7 +11225,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11245,7 +11245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11266,7 +11266,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11286,7 +11286,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11306,7 +11306,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11326,7 +11326,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11347,7 +11347,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11367,7 +11367,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11388,7 +11388,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11408,7 +11408,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11428,7 +11428,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11448,7 +11448,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11468,7 +11468,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11488,7 +11488,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11508,7 +11508,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11528,7 +11528,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11549,7 +11549,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11569,7 +11569,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11589,7 +11589,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11609,7 +11609,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11629,7 +11629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11649,7 +11649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11669,7 +11669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11689,7 +11689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11709,7 +11709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11729,7 +11729,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11749,7 +11749,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11769,7 +11769,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11789,7 +11789,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11809,7 +11809,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11829,7 +11829,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11849,7 +11849,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11869,7 +11869,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11889,7 +11889,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11910,7 +11910,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11930,7 +11930,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11950,7 +11950,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11970,7 +11970,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11990,7 +11990,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12010,7 +12010,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12030,7 +12030,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12064,7 +12064,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12084,7 +12084,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12118,7 +12118,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12138,7 +12138,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12158,7 +12158,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13492,7 +13492,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13512,7 +13512,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13532,7 +13532,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14357,7 +14357,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14377,7 +14377,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14397,7 +14397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14418,7 +14418,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14438,7 +14438,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14458,7 +14458,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14478,7 +14478,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14498,7 +14498,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14518,7 +14518,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14552,7 +14552,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14572,7 +14572,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14997,7 +14997,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15017,7 +15017,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15037,7 +15037,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15057,7 +15057,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15088,7 +15088,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15108,7 +15108,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15128,7 +15128,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15148,7 +15148,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15168,7 +15168,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15188,7 +15188,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15219,7 +15219,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15239,7 +15239,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15259,7 +15259,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15279,7 +15279,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15495,7 +15495,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15515,7 +15515,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15535,7 +15535,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15555,7 +15555,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15575,7 +15575,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15595,7 +15595,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15616,7 +15616,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15636,7 +15636,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15657,7 +15657,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15677,7 +15677,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15697,7 +15697,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15717,7 +15717,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15737,7 +15737,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15758,7 +15758,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15778,7 +15778,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15798,7 +15798,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15818,7 +15818,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15838,7 +15838,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15859,7 +15859,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15879,7 +15879,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15899,7 +15899,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15919,7 +15919,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15940,7 +15940,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15960,7 +15960,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15980,7 +15980,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16000,7 +16000,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16020,7 +16020,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16040,7 +16040,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16060,7 +16060,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16080,7 +16080,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16100,7 +16100,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16120,7 +16120,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16140,7 +16140,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16160,7 +16160,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16181,7 +16181,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16201,7 +16201,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16221,7 +16221,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16241,7 +16241,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16261,7 +16261,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16281,7 +16281,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16301,7 +16301,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16321,7 +16321,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16342,7 +16342,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16362,7 +16362,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16383,7 +16383,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16403,7 +16403,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16423,7 +16423,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16443,7 +16443,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16463,7 +16463,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16483,7 +16483,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16504,7 +16504,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16524,7 +16524,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16544,7 +16544,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16564,7 +16564,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16584,7 +16584,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16604,7 +16604,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16624,7 +16624,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16644,7 +16644,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16726,7 +16726,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16746,7 +16746,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16766,7 +16766,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16786,7 +16786,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16807,7 +16807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16827,7 +16827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16847,7 +16847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16868,7 +16868,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16888,7 +16888,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16908,7 +16908,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16929,7 +16929,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16949,7 +16949,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16969,7 +16969,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16989,7 +16989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17010,7 +17010,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17030,7 +17030,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17051,7 +17051,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17071,7 +17071,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17091,7 +17091,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17111,7 +17111,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17943,7 +17943,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17963,7 +17963,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17991,7 +17991,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18011,7 +18011,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18039,7 +18039,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18059,7 +18059,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18177,7 +18177,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18197,7 +18197,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18225,7 +18225,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18245,7 +18245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18273,7 +18273,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18293,7 +18293,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18321,7 +18321,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18341,7 +18341,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18383,7 +18383,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18519,7 +18519,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18539,7 +18539,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18567,7 +18567,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18587,7 +18587,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18615,7 +18615,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18635,7 +18635,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18877,7 +18877,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18898,7 +18898,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18919,7 +18919,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18939,7 +18939,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19322,7 +19322,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19343,7 +19343,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19416,7 +19416,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19437,7 +19437,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19457,7 +19457,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19478,7 +19478,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19621,7 +19621,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19642,7 +19642,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19662,7 +19662,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20259,7 +20259,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20280,7 +20280,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20301,7 +20301,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20322,7 +20322,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20342,7 +20342,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20362,7 +20362,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20388,7 +20388,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20408,7 +20408,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20430,7 +20430,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20450,7 +20450,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20470,7 +20470,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20490,7 +20490,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20516,7 +20516,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20536,7 +20536,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22461,7 +22461,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22482,7 +22482,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22569,7 +22569,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22589,7 +22589,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22609,7 +22609,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22629,7 +22629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22649,7 +22649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22669,7 +22669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22689,7 +22689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22709,7 +22709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22732,7 +22732,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22752,7 +22752,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22772,7 +22772,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22792,7 +22792,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22813,7 +22813,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22833,7 +22833,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22853,7 +22853,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22873,7 +22873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22895,7 +22895,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22915,7 +22915,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22935,7 +22935,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22955,7 +22955,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22975,7 +22975,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22995,7 +22995,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23015,7 +23015,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23035,7 +23035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23055,7 +23055,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23075,7 +23075,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23095,7 +23095,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23116,7 +23116,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24683,7 +24683,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24703,7 +24703,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24771,7 +24771,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24791,7 +24791,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26417,7 +26417,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26437,7 +26437,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26465,7 +26465,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26485,7 +26485,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26513,7 +26513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26533,7 +26533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26606,7 +26606,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26626,7 +26626,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26646,7 +26646,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26666,7 +26666,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26686,7 +26686,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26706,7 +26706,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26727,7 +26727,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26747,7 +26747,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26768,7 +26768,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26788,7 +26788,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26808,7 +26808,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26828,7 +26828,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26848,7 +26848,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26868,7 +26868,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26888,7 +26888,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26908,7 +26908,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26928,7 +26928,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26948,7 +26948,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26968,7 +26968,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26988,7 +26988,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27009,7 +27009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27029,7 +27029,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27049,7 +27049,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27069,7 +27069,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27089,7 +27089,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27109,7 +27109,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27129,7 +27129,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27149,7 +27149,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27169,7 +27169,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27189,7 +27189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27210,7 +27210,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27230,7 +27230,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27250,7 +27250,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27270,7 +27270,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27290,7 +27290,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27310,7 +27310,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707224400">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -28315,7 +28315,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28330,7 +28330,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28344,7 +28344,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28358,7 +28358,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28372,7 +28372,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28387,7 +28387,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28402,7 +28402,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28416,7 +28416,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28431,7 +28431,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -28446,7 +28446,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -28461,7 +28461,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -28476,7 +28476,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -28491,7 +28491,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28505,7 +28505,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28520,7 +28520,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28535,7 +28535,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28550,7 +28550,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28564,7 +28564,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28579,7 +28579,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28593,7 +28593,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28607,7 +28607,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28621,7 +28621,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28635,7 +28635,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28651,7 +28651,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="800080" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="800080" ulstyle="none" kern="1">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28667,7 +28667,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28682,7 +28682,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="Microsoft JhengHei" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28697,7 +28697,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="Microsoft YaHei" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28713,7 +28713,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28728,7 +28728,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28744,7 +28744,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28760,7 +28760,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707224400" fgClr="800080" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="800080" ulstyle="none">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28782,7 +28782,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28799,7 +28799,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28810,7 +28810,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28821,7 +28821,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28832,7 +28832,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28849,7 +28849,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28860,7 +28860,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28871,7 +28871,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28882,7 +28882,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28893,7 +28893,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28904,7 +28904,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28915,7 +28915,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="0095B3D7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="0095B3D7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28926,7 +28926,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28937,7 +28937,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00F2DCDB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00F2DCDB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28948,7 +28948,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00E6B8B7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00E6B8B7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28959,7 +28959,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00DA9694" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00DA9694" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28970,7 +28970,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="009BBB59" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="009BBB59" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28981,7 +28981,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28992,7 +28992,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29003,7 +29003,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29014,7 +29014,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="008064A2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="008064A2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29025,7 +29025,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00E4DFEC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00E4DFEC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29036,7 +29036,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00CCC0DA" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00CCC0DA" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29047,7 +29047,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00B1A0C7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00B1A0C7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29058,7 +29058,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29069,7 +29069,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29080,7 +29080,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00B7DEE8" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00B7DEE8" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29091,7 +29091,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="0092CDDC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="0092CDDC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29102,7 +29102,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29113,7 +29113,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29124,7 +29124,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FCD5B4" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FCD5B4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29135,7 +29135,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FABF8F" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FABF8F" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29146,7 +29146,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707224400" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29168,7 +29168,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29187,7 +29187,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -29211,7 +29211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="4F81BD"/>
           </pm:border>
         </ext>
@@ -29232,7 +29232,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="A6BEDD"/>
           </pm:border>
         </ext>
@@ -29253,7 +29253,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -29277,7 +29277,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -29301,7 +29301,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -29325,7 +29325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -29349,7 +29349,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -29370,7 +29370,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400">
+          <pm:border xmlns:pm="smNativeData" id="1707225669">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="4F81BD"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="4F81BD"/>
           </pm:border>
@@ -29392,7 +29392,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29411,7 +29411,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29430,7 +29430,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29449,7 +29449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29468,7 +29468,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29487,7 +29487,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29506,7 +29506,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29525,7 +29525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29544,7 +29544,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29563,7 +29563,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29582,7 +29582,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29601,7 +29601,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29620,7 +29620,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29639,7 +29639,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29658,7 +29658,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29677,7 +29677,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29696,7 +29696,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29715,7 +29715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29734,7 +29734,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29753,7 +29753,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29772,7 +29772,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29791,7 +29791,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29810,7 +29810,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29829,7 +29829,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29848,7 +29848,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29867,7 +29867,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29886,7 +29886,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -29905,7 +29905,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707224400"/>
+          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
         </ext>
       </extLst>
     </border>
@@ -30323,10 +30323,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1707224400" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1707225669" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1707224400" count="42">
+      <pm:colors xmlns:pm="smNativeData" id="1707225669" count="42">
         <pm:color name="色 24" rgb="800080"/>
         <pm:color name="色 25" rgb="EEECE1"/>
         <pm:color name="色 26" rgb="3F3F76"/>
@@ -30633,8 +30633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q402"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A343" zoomScale="90" workbookViewId="0">
-      <selection activeCell="M360" sqref="M360"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A337" zoomScale="90" workbookViewId="0">
+      <selection activeCell="M362" sqref="M362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.65"/>
@@ -35467,7 +35467,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -35476,16 +35476,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -35723,7 +35723,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -35732,16 +35732,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -41198,7 +41198,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -41207,16 +41207,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -48533,7 +48533,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -48542,16 +48542,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -52278,7 +52278,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -52287,16 +52287,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -56763,7 +56763,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -56772,16 +56772,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -57393,7 +57393,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -57402,16 +57402,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -57964,7 +57964,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -57973,16 +57973,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -58257,7 +58257,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707224400" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -58266,16 +58266,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707224400" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707224400" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707224400" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/TextRevamp.xlsx
+++ b/TextRevamp.xlsx
@@ -24,10 +24,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1707225669" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1707225669" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1707225669" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1707225669"/>
+      <pm:revision xmlns:pm="smNativeData" day="1707226532" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1707226532" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1707226532" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1707226532"/>
     </ext>
   </extLst>
 </workbook>
@@ -178,7 +178,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -198,7 +198,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -218,7 +218,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -238,7 +238,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1244,7 +1244,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1264,7 +1264,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2385,7 +2385,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2405,7 +2405,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2439,7 +2439,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2629,7 +2629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2649,7 +2649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2669,7 +2669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2689,7 +2689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2709,7 +2709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2729,7 +2729,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2787,7 +2787,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2807,7 +2807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2827,7 +2827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2847,7 +2847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2867,7 +2867,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2887,7 +2887,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2907,7 +2907,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2927,7 +2927,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -2947,7 +2947,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3017,7 +3017,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3037,7 +3037,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3057,7 +3057,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3077,7 +3077,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3097,7 +3097,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3117,7 +3117,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3163,7 +3163,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3183,7 +3183,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3203,7 +3203,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3223,7 +3223,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3243,7 +3243,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3263,7 +3263,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3283,7 +3283,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3303,7 +3303,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3323,7 +3323,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3393,7 +3393,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3413,7 +3413,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3433,7 +3433,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3453,7 +3453,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3473,7 +3473,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3493,7 +3493,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3513,7 +3513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3533,7 +3533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3553,7 +3553,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3587,7 +3587,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3607,7 +3607,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3627,7 +3627,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3647,7 +3647,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3667,7 +3667,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3687,7 +3687,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3707,7 +3707,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3741,7 +3741,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3761,7 +3761,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3781,7 +3781,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3801,7 +3801,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3821,7 +3821,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3841,7 +3841,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3861,7 +3861,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3881,7 +3881,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3901,7 +3901,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3921,7 +3921,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3961,7 +3961,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -3981,7 +3981,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4002,7 +4002,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4022,7 +4022,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4042,7 +4042,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4062,7 +4062,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4082,7 +4082,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4102,7 +4102,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4122,7 +4122,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4142,7 +4142,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4163,7 +4163,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4183,7 +4183,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4203,7 +4203,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -4639,7 +4639,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -4670,7 +4670,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -4889,7 +4889,7 @@
     <t>PublicBetaEnableDisableStr</t>
   </si>
   <si>
-    <t>再起動後にパブリックベータモードが{0}{になります</t>
+    <t>再起動後にパブリックベータモードが{0}になります</t>
   </si>
   <si>
     <t>PublicBetaWarning</t>
@@ -4989,7 +4989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5009,7 +5009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5034,7 +5034,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5054,7 +5054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5079,7 +5079,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5099,7 +5099,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5136,7 +5136,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -5157,7 +5157,7 @@
         <color rgb="FF800080"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="800080">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="800080">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -5254,7 +5254,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5274,7 +5274,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5299,7 +5299,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5319,7 +5319,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5344,7 +5344,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5364,7 +5364,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5427,7 +5427,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5447,7 +5447,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5529,7 +5529,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5563,7 +5563,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5583,7 +5583,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5617,7 +5617,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5637,7 +5637,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5657,7 +5657,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5677,7 +5677,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5802,7 +5802,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5822,7 +5822,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5842,7 +5842,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5862,7 +5862,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5882,7 +5882,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5902,7 +5902,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5923,7 +5923,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5943,7 +5943,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5963,7 +5963,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -5983,7 +5983,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -6003,7 +6003,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -6023,7 +6023,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7245,7 +7245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7276,7 +7276,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7296,7 +7296,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7374,7 +7374,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7394,7 +7394,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7433,7 +7433,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -7453,7 +7453,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8654,7 +8654,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8674,7 +8674,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8756,7 +8756,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft YaHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8776,7 +8776,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -8796,7 +8796,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9922,7 +9922,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9942,7 +9942,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9970,7 +9970,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -9990,7 +9990,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10018,7 +10018,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10038,7 +10038,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10844,7 +10844,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10864,7 +10864,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10884,7 +10884,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10904,7 +10904,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10938,7 +10938,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10958,7 +10958,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -10978,7 +10978,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11012,7 +11012,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11032,7 +11032,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11054,7 +11054,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -11074,7 +11074,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="MS Gothic" sz="190" weight="normal" i="0"/>
               <pm:cs sz="190"/>
               <pm:ea sz="190"/>
@@ -11185,7 +11185,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11205,7 +11205,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11225,7 +11225,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11245,7 +11245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11266,7 +11266,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11286,7 +11286,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11306,7 +11306,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11326,7 +11326,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11347,7 +11347,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11367,7 +11367,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11388,7 +11388,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11408,7 +11408,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11428,7 +11428,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11448,7 +11448,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11468,7 +11468,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11488,7 +11488,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11508,7 +11508,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11528,7 +11528,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11549,7 +11549,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11569,7 +11569,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11589,7 +11589,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11609,7 +11609,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11629,7 +11629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11649,7 +11649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11669,7 +11669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11689,7 +11689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11709,7 +11709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11729,7 +11729,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11749,7 +11749,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11769,7 +11769,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11789,7 +11789,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11809,7 +11809,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11829,7 +11829,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11849,7 +11849,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11869,7 +11869,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11889,7 +11889,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11910,7 +11910,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11930,7 +11930,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11950,7 +11950,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11970,7 +11970,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -11990,7 +11990,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12010,7 +12010,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12030,7 +12030,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12064,7 +12064,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12084,7 +12084,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12118,7 +12118,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12138,7 +12138,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -12158,7 +12158,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13492,7 +13492,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13512,7 +13512,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -13532,7 +13532,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14357,7 +14357,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14377,7 +14377,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14397,7 +14397,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14418,7 +14418,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14438,7 +14438,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14458,7 +14458,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14478,7 +14478,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14498,7 +14498,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14518,7 +14518,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14552,7 +14552,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14572,7 +14572,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -14997,7 +14997,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15017,7 +15017,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15037,7 +15037,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15057,7 +15057,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15088,7 +15088,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15108,7 +15108,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15128,7 +15128,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15148,7 +15148,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15168,7 +15168,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15188,7 +15188,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15219,7 +15219,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15239,7 +15239,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15259,7 +15259,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15279,7 +15279,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15495,7 +15495,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15515,7 +15515,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15535,7 +15535,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15555,7 +15555,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15575,7 +15575,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15595,7 +15595,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15616,7 +15616,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15636,7 +15636,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15657,7 +15657,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15677,7 +15677,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15697,7 +15697,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15717,7 +15717,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15737,7 +15737,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15758,7 +15758,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15778,7 +15778,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15798,7 +15798,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15818,7 +15818,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15838,7 +15838,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15859,7 +15859,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15879,7 +15879,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15899,7 +15899,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15919,7 +15919,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15940,7 +15940,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15960,7 +15960,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -15980,7 +15980,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16000,7 +16000,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16020,7 +16020,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16040,7 +16040,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16060,7 +16060,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16080,7 +16080,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16100,7 +16100,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16120,7 +16120,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16140,7 +16140,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16160,7 +16160,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16181,7 +16181,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16201,7 +16201,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16221,7 +16221,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16241,7 +16241,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16261,7 +16261,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16281,7 +16281,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16301,7 +16301,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16321,7 +16321,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16342,7 +16342,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16362,7 +16362,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16383,7 +16383,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16403,7 +16403,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16423,7 +16423,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16443,7 +16443,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16463,7 +16463,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16483,7 +16483,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16504,7 +16504,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16524,7 +16524,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16544,7 +16544,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16564,7 +16564,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16584,7 +16584,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16604,7 +16604,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16624,7 +16624,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16644,7 +16644,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16726,7 +16726,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16746,7 +16746,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16766,7 +16766,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16786,7 +16786,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16807,7 +16807,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16827,7 +16827,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16847,7 +16847,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16868,7 +16868,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16888,7 +16888,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16908,7 +16908,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16929,7 +16929,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16949,7 +16949,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16969,7 +16969,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -16989,7 +16989,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17010,7 +17010,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17030,7 +17030,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17051,7 +17051,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17071,7 +17071,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17091,7 +17091,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17111,7 +17111,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17943,7 +17943,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17963,7 +17963,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -17991,7 +17991,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18011,7 +18011,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18039,7 +18039,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18059,7 +18059,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18177,7 +18177,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18197,7 +18197,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18225,7 +18225,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18245,7 +18245,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18273,7 +18273,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18293,7 +18293,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18321,7 +18321,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18341,7 +18341,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18383,7 +18383,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18519,7 +18519,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18539,7 +18539,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18567,7 +18567,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18587,7 +18587,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18615,7 +18615,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18635,7 +18635,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18877,7 +18877,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18898,7 +18898,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18919,7 +18919,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -18939,7 +18939,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19322,7 +19322,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19343,7 +19343,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19416,7 +19416,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19437,7 +19437,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19457,7 +19457,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19478,7 +19478,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19621,7 +19621,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19642,7 +19642,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -19662,7 +19662,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20259,7 +20259,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20280,7 +20280,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20301,7 +20301,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20322,7 +20322,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20342,7 +20342,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20362,7 +20362,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20388,7 +20388,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20408,7 +20408,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20430,7 +20430,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20450,7 +20450,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20470,7 +20470,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20490,7 +20490,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20516,7 +20516,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -20536,7 +20536,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22461,7 +22461,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22482,7 +22482,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22569,7 +22569,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22589,7 +22589,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22609,7 +22609,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22629,7 +22629,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22649,7 +22649,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22669,7 +22669,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22689,7 +22689,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22709,7 +22709,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22732,7 +22732,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22752,7 +22752,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22772,7 +22772,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22792,7 +22792,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22813,7 +22813,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22833,7 +22833,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22853,7 +22853,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22873,7 +22873,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22895,7 +22895,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22915,7 +22915,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22935,7 +22935,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22955,7 +22955,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22975,7 +22975,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -22995,7 +22995,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23015,7 +23015,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23035,7 +23035,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23055,7 +23055,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23075,7 +23075,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23095,7 +23095,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -23116,7 +23116,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24683,7 +24683,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24703,7 +24703,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24771,7 +24771,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Microsoft JhengHei" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -24791,7 +24791,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26417,7 +26417,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26437,7 +26437,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26465,7 +26465,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26485,7 +26485,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26513,7 +26513,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26533,7 +26533,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26606,7 +26606,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26626,7 +26626,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26646,7 +26646,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26666,7 +26666,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26686,7 +26686,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26706,7 +26706,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26727,7 +26727,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26747,7 +26747,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26768,7 +26768,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26788,7 +26788,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26808,7 +26808,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26828,7 +26828,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26848,7 +26848,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26868,7 +26868,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26888,7 +26888,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26908,7 +26908,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26928,7 +26928,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26948,7 +26948,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26968,7 +26968,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -26988,7 +26988,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27009,7 +27009,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27029,7 +27029,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27049,7 +27049,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27069,7 +27069,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27089,7 +27089,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27109,7 +27109,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27129,7 +27129,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27149,7 +27149,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27169,7 +27169,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27189,7 +27189,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27210,7 +27210,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27230,7 +27230,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27250,7 +27250,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27270,7 +27270,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27290,7 +27290,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="宋体" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -27310,7 +27310,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1707225669">
+            <pm:charSpec xmlns:pm="smNativeData" id="1707226532">
               <pm:latin face="游ゴシック" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -28315,7 +28315,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28330,7 +28330,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28344,7 +28344,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28358,7 +28358,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28372,7 +28372,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28387,7 +28387,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28402,7 +28402,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28416,7 +28416,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28431,7 +28431,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -28446,7 +28446,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -28461,7 +28461,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -28476,7 +28476,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -28491,7 +28491,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="EEECE1" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="EEECE1" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28505,7 +28505,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28520,7 +28520,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28535,7 +28535,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28550,7 +28550,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28564,7 +28564,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28579,7 +28579,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -28593,7 +28593,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28607,7 +28607,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28621,7 +28621,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28635,7 +28635,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="SimSun" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28651,7 +28651,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="800080" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="800080" ulstyle="none" kern="1">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28667,7 +28667,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28682,7 +28682,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="Microsoft JhengHei" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28697,7 +28697,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="Microsoft YaHei" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28713,7 +28713,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -28728,7 +28728,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -28744,7 +28744,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28760,7 +28760,7 @@
       <sz val="9.50"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1707225669" fgClr="800080" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1707226532" fgClr="800080" ulstyle="none">
             <pm:latin face="MS Gothic" sz="190" lang="default"/>
             <pm:cs face="Times New Roman" sz="190" lang="default"/>
             <pm:ea face="SimSun" sz="190" lang="default"/>
@@ -28782,7 +28782,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28799,7 +28799,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28810,7 +28810,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28821,7 +28821,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28832,7 +28832,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28849,7 +28849,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28860,7 +28860,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28871,7 +28871,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28882,7 +28882,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28893,7 +28893,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28904,7 +28904,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28915,7 +28915,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="0095B3D7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="0095B3D7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28926,7 +28926,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28937,7 +28937,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00F2DCDB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00F2DCDB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28948,7 +28948,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00E6B8B7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00E6B8B7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28959,7 +28959,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00DA9694" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00DA9694" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28970,7 +28970,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="009BBB59" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="009BBB59" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28981,7 +28981,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -28992,7 +28992,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29003,7 +29003,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29014,7 +29014,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="008064A2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="008064A2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29025,7 +29025,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00E4DFEC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00E4DFEC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29036,7 +29036,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00CCC0DA" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00CCC0DA" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29047,7 +29047,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00B1A0C7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00B1A0C7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29058,7 +29058,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29069,7 +29069,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29080,7 +29080,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00B7DEE8" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00B7DEE8" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29091,7 +29091,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="0092CDDC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="0092CDDC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29102,7 +29102,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29113,7 +29113,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29124,7 +29124,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FCD5B4" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00FCD5B4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29135,7 +29135,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FABF8F" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00FABF8F" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29146,7 +29146,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1707225669" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1707226532" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -29168,7 +29168,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29187,7 +29187,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -29211,7 +29211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="4F81BD"/>
           </pm:border>
         </ext>
@@ -29232,7 +29232,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="A6BEDD"/>
           </pm:border>
         </ext>
@@ -29253,7 +29253,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -29277,7 +29277,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -29301,7 +29301,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -29325,7 +29325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -29349,7 +29349,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -29370,7 +29370,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669">
+          <pm:border xmlns:pm="smNativeData" id="1707226532">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="4F81BD"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="4F81BD"/>
           </pm:border>
@@ -29392,7 +29392,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29411,7 +29411,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29430,7 +29430,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29449,7 +29449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29468,7 +29468,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29487,7 +29487,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29506,7 +29506,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29525,7 +29525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29544,7 +29544,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29563,7 +29563,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29582,7 +29582,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29601,7 +29601,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29620,7 +29620,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29639,7 +29639,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29658,7 +29658,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29677,7 +29677,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29696,7 +29696,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29715,7 +29715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29734,7 +29734,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29753,7 +29753,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29772,7 +29772,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29791,7 +29791,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29810,7 +29810,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29829,7 +29829,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29848,7 +29848,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29867,7 +29867,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29886,7 +29886,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -29905,7 +29905,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1707225669"/>
+          <pm:border xmlns:pm="smNativeData" id="1707226532"/>
         </ext>
       </extLst>
     </border>
@@ -30323,10 +30323,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1707225669" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1707226532" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1707225669" count="42">
+      <pm:colors xmlns:pm="smNativeData" id="1707226532" count="42">
         <pm:color name="色 24" rgb="800080"/>
         <pm:color name="色 25" rgb="EEECE1"/>
         <pm:color name="色 26" rgb="3F3F76"/>
@@ -30634,7 +30634,7 @@
   <dimension ref="A1:Q402"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A337" zoomScale="90" workbookViewId="0">
-      <selection activeCell="M362" sqref="M362"/>
+      <selection activeCell="M360" sqref="M360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.65"/>
@@ -35467,7 +35467,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -35476,16 +35476,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -35723,7 +35723,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -35732,16 +35732,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -41198,7 +41198,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -41207,16 +41207,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -48533,7 +48533,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -48542,16 +48542,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -52278,7 +52278,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -52287,16 +52287,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -56763,7 +56763,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -56772,16 +56772,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -57393,7 +57393,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -57402,16 +57402,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -57964,7 +57964,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -57973,16 +57973,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -58257,7 +58257,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1707225669" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1707226532" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -58266,16 +58266,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1707225669" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1707225669" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1707226532" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1707226532" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707225669" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1707226532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
